--- a/quanlysinhvien/sinhvientinchi/SV001/dsHocPhanDaDangKy.xlsx
+++ b/quanlysinhvien/sinhvientinchi/SV001/dsHocPhanDaDangKy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Mã Học Phần</t>
   </si>
@@ -35,40 +35,55 @@
     <t>Ngày Đăng Ký</t>
   </si>
   <si>
+    <t>IT1010</t>
+  </si>
+  <si>
+    <t>Tin học đại cương</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>2017-12-07</t>
+  </si>
+  <si>
+    <t>MI1010</t>
+  </si>
+  <si>
+    <t>Giải tích I</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MI1020</t>
+  </si>
+  <si>
+    <t>Giải tích II</t>
+  </si>
+  <si>
     <t>IT3080</t>
   </si>
   <si>
     <t>Mạng máy tính</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>2017-12-06</t>
-  </si>
-  <si>
-    <t>IT1010</t>
-  </si>
-  <si>
-    <t>Tin học đại cương</t>
-  </si>
-  <si>
-    <t>PE1020</t>
-  </si>
-  <si>
-    <t>Giáo dục thể chất B</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>MI1030</t>
-  </si>
-  <si>
-    <t>Đại số</t>
-  </si>
-  <si>
-    <t>MI</t>
+    <t>IT3090</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>IT3040</t>
+  </si>
+  <si>
+    <t>Kỹ thuật lập trình</t>
+  </si>
+  <si>
+    <t>IT3030</t>
+  </si>
+  <si>
+    <t>Kiến trúc máy tính</t>
   </si>
 </sst>
 </file>
@@ -119,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:I5"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,13 +174,13 @@
         <v>3.0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.0</v>
+        <v>5.5</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -182,13 +197,13 @@
         <v>3.0</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -196,19 +211,19 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4" t="n">
         <v>0.7</v>
@@ -228,15 +243,84 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
     </row>
